--- a/excel/05-05-2025/1_manifiestos.xlsx
+++ b/excel/05-05-2025/1_manifiestos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NUMERO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PLACA</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CONDUCTOR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ORIGEN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>DESTINO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MES</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KOF</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>REMESA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EMPRESA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>VALOR_FLETE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PDF_PATH</t>
         </is>
@@ -498,59 +503,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>4355531</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>WALTER ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>APRIL</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4355531</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-602459303</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>602459303</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>KBQ62347</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4355531.pdf</t>
         </is>
@@ -559,59 +566,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>4374609</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>PEDRO JOSE QUINTERO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>APRIL</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4374609</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-602474062</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>602474062</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>KBQ63057</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4374609.pdf</t>
         </is>
@@ -620,59 +629,61 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>4376691</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>PEDRi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4376691</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476426</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>602476426</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>KBQ63197</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4376691.pdf</t>
         </is>
@@ -681,59 +692,61 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>4380362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>PEDRO JOSE QUINTERO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4380362</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478772</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>602478772</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>KBQ63219</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4380362.pdf</t>
         </is>
@@ -742,59 +755,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>4380375</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>PEDRO JOSE QUINTERO</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4380375</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478771</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>602478771</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>KBQ63244</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4380375.pdf</t>
         </is>
@@ -803,59 +818,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>4382251</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>PEDRO JOSE QUINTERO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4382251</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479348</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>602479348</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>KBQ63229</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4382251.pdf</t>
         </is>
@@ -864,59 +881,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>4380361</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>WALTER ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4380361</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479064</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>602479064</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>KBQ63276</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4380361.pdf</t>
         </is>
@@ -925,59 +944,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>4380382</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WALTER ANTONIO NARVAEZ </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>WALTER ANTONIO NARVAEZ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4380382</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479036</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>602479036</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>KBQ63288</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4380382.pdf</t>
         </is>
@@ -986,59 +1007,61 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>4382263</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>WALTER ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4382263</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479548</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>602479548</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>KBQ63261</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4382263.pdf</t>
         </is>
@@ -1047,59 +1070,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>4382359</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>SPV632</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>WALTER ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Barranquea</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4382359</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602480236</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>602480236</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>KBQ63340</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SPV632 ID 4382359.pdf</t>
         </is>
@@ -1108,59 +1133,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>4376653</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>4376653</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476369</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>602476369</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>KBQ63155</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4376653.pdf</t>
         </is>
@@ -1169,59 +1196,61 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>4380302</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4380302</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478559</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>602478559</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>KBQ63224</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4380302.pdf</t>
         </is>
@@ -1230,59 +1259,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>4380329</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4380329</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478723</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>602478723</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>KBQ63248</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4380329.pdf</t>
         </is>
@@ -1291,59 +1322,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>4380366</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JESUS ARMANDO COTAMO </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4380366</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478718</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>602478718</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>KBQ63234</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4380366.pdf</t>
         </is>
@@ -1352,59 +1385,61 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>4380330</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4380330</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478887</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>602478887</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>KBQ63282</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4380330.pdf</t>
         </is>
@@ -1413,59 +1448,61 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>4380342</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>SZK561</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>JESUS ARMANDO COTAMO</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4380342</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478798</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>602478798</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>KBQ63268</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global SZK561 ID 4380342.pdf</t>
         </is>
@@ -1474,59 +1511,61 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>4374608</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>APRIL</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4374608</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-602474090</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>602474090</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>KBQ63284</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4374608.pdf</t>
         </is>
@@ -1535,59 +1574,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>4376678</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4376678</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476700</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>602476700</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>KBQ63147</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4376678.pdf</t>
         </is>
@@ -1596,59 +1637,61 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>4380372</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REINALDO ANTONIO NARVAEZ </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>REINALDO ANTONIO NARVAEZ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Cartagena</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4380372</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478764</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>602478764</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>KBQ63218</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
         <v>1700000</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4380372.pdf</t>
         </is>
@@ -1657,59 +1700,61 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4382276</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4382276</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479518</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>602479518</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>KBQ63259</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4382276.pdf</t>
         </is>
@@ -1718,59 +1763,61 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>4380328</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>4380328</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479083</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>602479083</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>KBQ63285</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>250000</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4380328.pdf</t>
         </is>
@@ -1779,59 +1826,61 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>4380333</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4380333</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478738</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>602478738</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>KBQ63269</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4380333.pdf</t>
         </is>
@@ -1840,59 +1889,61 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>4382363</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>TMO534</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>REINALDO ANTONIO NARVAEZ</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4382363</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602480353</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>602480353</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>KBQ63339</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global TMO534 ID 4382363.pdf</t>
         </is>
@@ -1901,59 +1952,61 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>4376656</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4376656</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476671</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>602476671</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>KBQ63145</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4376656.pdf</t>
         </is>
@@ -1962,59 +2015,61 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>4380383</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>4380383</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478784</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>602478784</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>KBQ63199</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380383.pdf</t>
         </is>
@@ -2023,59 +2078,61 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>4380356</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4380356</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478459</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>602478459</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>KBQ63247</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380356.pdf</t>
         </is>
@@ -2084,59 +2141,61 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>4380360</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4380360</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478539</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>602478539</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>KBQ63220</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380360.pdf</t>
         </is>
@@ -2145,59 +2204,61 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>4382250</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>4382250</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479542</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>602479542</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>KBQ63233</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4382250.pdf</t>
         </is>
@@ -2206,59 +2267,61 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>4380359</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>4380359</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479057</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>602479057</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>KBQ63262</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380359.pdf</t>
         </is>
@@ -2267,59 +2330,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>4380376</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>4380376</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479063</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>602479063</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>KBQ63289</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380376.pdf</t>
         </is>
@@ -2328,59 +2393,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>4380381</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>UYV055</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>WILSON JIMENEZ</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>4380381</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479150</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>602479150</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>KBQ63277</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global UYV055 ID 4380381.pdf</t>
         </is>
@@ -2389,59 +2456,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>4374632</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>APRIL</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>4374632</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-602474071</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>602474071</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>KBQ63063</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4374632.pdf</t>
         </is>
@@ -2450,59 +2519,61 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>4376654</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>4376654</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476505</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>602476505</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>KBQ63196</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
         <v>250000</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4376654.pdf</t>
         </is>
@@ -2511,59 +2582,61 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>4380318</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4380318</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478696</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>602478696</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>KBQ63226</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4380318.pdf</t>
         </is>
@@ -2572,59 +2645,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>4380319</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>4380319</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478780</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>602478780</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>KBQ63208</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4380319.pdf</t>
         </is>
@@ -2633,59 +2708,61 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>4380364</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>2025-05-03</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>4380364</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478478</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>602478478</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>KBQ63239</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
         <v>250000</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4380364.pdf</t>
         </is>
@@ -2694,59 +2771,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>4380349</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>XGD277</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>LUIS FERNANDO MURIEL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>4380349</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602479098</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>602479098</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>KBQ63271</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XGD277 ID 4380349.pdf</t>
         </is>
@@ -2755,59 +2834,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>4376689</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>XMC195</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUIS ANTONIO GONZALEZ </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>LUIS ANTONIO GONZALEZ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>4376689</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602476614</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>602476614</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>KBQ63165</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>280000</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XMC195 ID 4376689.pdf</t>
         </is>
@@ -2816,59 +2897,61 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>4380331</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>XMC195</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>LUIS ANTONIO GONZALEZ</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>BARRANQUILLA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>BARRANQUILLA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>2025-05-02</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>4380331</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-602478628</t>
+          <t>MAY</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>602478628</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>KBQ63223</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>CAMELO ARENAS GUILLERMO ANDRES</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
         <v>250000</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>/uploads/1/05-05-2025/global XMC195 ID 4380331.pdf</t>
         </is>
